--- a/statistics/SPSS/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
@@ -79,8 +79,8 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.016862694851825233</v>
+        <v>-0.015457470280839825</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.047357159017238026</v>
+        <v>-0.043410729099134904</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.01468981064311492</v>
+        <v>-0.013465659756188575</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.009167988671094196</v>
+        <v>-0.008403989615169638</v>
       </c>
       <c r="E2" s="0">
-        <v>0.010020933604008242</v>
+        <v>0.0091858558036740923</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.013144880724635599</v>
+        <v>-0.012049473997582716</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.00063092869998238044</v>
+        <v>-0.00057835130831723758</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0093072538633370838</v>
+        <v>0.0085316493747257804</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0081493466951997884</v>
+        <v>0.0074702344705998014</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00013839527906017723</v>
+        <v>0.00012686233913850042</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.014409716455752342</v>
+        <v>-0.013208906751106197</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.013384722864945242</v>
+        <v>-0.012269329292866449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.020528109402789596</v>
+        <v>-0.018817433619223833</v>
       </c>
       <c r="B4" s="0">
-        <v>0.029961809285117436</v>
+        <v>0.027464991844691089</v>
       </c>
       <c r="C4" s="0">
-        <v>0.013669989642529801</v>
+        <v>0.012530823838985516</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.010493532232662639</v>
+        <v>-0.0096190712132740996</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0048732943469786405</v>
+        <v>0.0044671864847303788</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0033511120467641375</v>
+        <v>-0.0030718527095339732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.00771239094220455</v>
+        <v>-0.0070696916970207635</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0066048844046208144</v>
+        <v>-0.0060544773709024224</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0024436235904806147</v>
+        <v>-0.0022399882912738645</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.021422028174333863</v>
+        <v>-0.019636859159806008</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00037084168318179955</v>
+        <v>-0.00033993820958339027</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.016217158800278964</v>
+        <v>-0.014865728900255615</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0061793757445931519</v>
+        <v>0.0056644277658771114</v>
       </c>
       <c r="B6" s="0">
-        <v>0.014149852450460298</v>
+        <v>0.012970698079588616</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0065892448727005171</v>
+        <v>-0.0060401411333088073</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.015500763326850298</v>
+        <v>-0.014209033049612629</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0071358928501786822</v>
+        <v>-0.0065412351126638013</v>
       </c>
       <c r="F6" s="0">
-        <v>0.007344795388273595</v>
+        <v>0.0067327291059176009</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01914361473040771</v>
+        <v>-0.017548313502873836</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0078026699161319879</v>
+        <v>-0.0071524474231207669</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.0037501440663496033</v>
+        <v>-0.003437632060820317</v>
       </c>
       <c r="D7" s="0">
-        <v>0.042649207245480492</v>
+        <v>0.039095106641690469</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.031724745234061991</v>
+        <v>-0.029081016464556853</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.010515586706062841</v>
+        <v>-0.009639287813890951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0030758413111355298</v>
+        <v>0.0028195212018742311</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.025086092115077563</v>
+        <v>-0.022995584438821048</v>
       </c>
       <c r="C8" s="0">
-        <v>0.01550163470453314</v>
+        <v>0.014209831812488749</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0025865170792707115</v>
+        <v>0.0023709739893314485</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00054830179053788619</v>
+        <v>-0.00050260997465972901</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0077058106949411398</v>
+        <v>-0.0070636598036961651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.017881204763615988</v>
+        <v>0.016391104366647868</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0078931109185567672</v>
+        <v>0.0072353516753437264</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.011443640018389989</v>
+        <v>-0.010490003350190735</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.024058463965296317</v>
+        <v>-0.022053591968188235</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0076416560955040458</v>
+        <v>-0.0070048514208787549</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.011023569757360741</v>
+        <v>-0.010104938944247299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0034075026585073109</v>
+        <v>0.0031235441036316924</v>
       </c>
       <c r="B10" s="0">
-        <v>0.01633943224332246</v>
+        <v>0.014977812889712228</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.018122954768917454</v>
+        <v>-0.01661270853817437</v>
       </c>
       <c r="D10" s="0">
-        <v>0.05161313537272616</v>
+        <v>0.047312040758332341</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.022441955412969949</v>
+        <v>-0.02057179246188906</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.015624642478862472</v>
+        <v>-0.014322588938957159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0058164259251215489</v>
+        <v>-0.0053317237646948179</v>
       </c>
       <c r="B11" s="0">
-        <v>0.007535307306474448</v>
+        <v>0.0069073650309348089</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.0010072183985228023</v>
+        <v>-0.00092328353197917989</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0014781862607949336</v>
+        <v>0.0013550040723953605</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0087630968065749992</v>
+        <v>-0.0080328387393603928</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.020481330263938891</v>
+        <v>-0.018774552741943895</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.016703696337563523</v>
+        <v>-0.015311721642766563</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.033429083148242777</v>
+        <v>-0.030643326219222555</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0062275795195048667</v>
+        <v>-0.0057086145595462434</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.015538729186980182</v>
+        <v>-0.014243835088065204</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.025419354470737898</v>
+        <v>-0.023301074931509624</v>
       </c>
       <c r="F12" s="0">
-        <v>0.005018331105287599</v>
+        <v>0.0046001368465136139</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.00062377236290284133</v>
+        <v>0.000571791332660887</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.003555404642361204</v>
+        <v>-0.0032591209221645157</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0088410667644077123</v>
+        <v>0.0081043112007070373</v>
       </c>
       <c r="D13" s="0">
-        <v>0.030392433653303297</v>
+        <v>0.027859730848861397</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0018380706786503831</v>
+        <v>0.0016848981220963233</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0031516496047387932</v>
+        <v>-0.0028890121376772826</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0016652276486645023</v>
+        <v>0.0015264586779424327</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00044265986294966808</v>
+        <v>0.00040577154103732527</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.017659363000977868</v>
+        <v>-0.016187749417563013</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0083343881297846534</v>
+        <v>-0.0076398557856359184</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0092192700888352741</v>
+        <v>0.0084509975814322513</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.021114431852244819</v>
+        <v>-0.019354895864557797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.043300576897414733</v>
+        <v>-0.039692195489296866</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.001157872534684079</v>
+        <v>-0.001061383156793716</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.029025061241471917</v>
+        <v>-0.0266063061380159</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.016066231169206024</v>
+        <v>-0.014727378571772143</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0038163826236367604</v>
+        <v>0.0034983507383335444</v>
       </c>
       <c r="F15" s="0">
-        <v>0.022342644702893155</v>
+        <v>0.020480757644318781</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.002139444168429705</v>
+        <v>-0.0019611571543939332</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0072197952060651382</v>
+        <v>-0.0066181456055597887</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.010126118821771057</v>
+        <v>-0.009282275586623423</v>
       </c>
       <c r="D16" s="0">
-        <v>0.035400589748415867</v>
+        <v>0.032450540602714462</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0050055188395109473</v>
+        <v>0.0045883922695516</v>
       </c>
       <c r="F16" s="0">
-        <v>0.011849865110734714</v>
+        <v>0.010862376351506775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.021967431387721281</v>
+        <v>-0.020136812105411184</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0044330900656496253</v>
+        <v>0.0040636658935122583</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0083282039803778685</v>
+        <v>0.0076341869820130137</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.010567684480727979</v>
+        <v>-0.009687044107333953</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0051480051480051747</v>
+        <v>0.0047190047190047157</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.0070796610651684411</v>
+        <v>-0.0064896893097375341</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.045125760896165157</v>
+        <v>0.041365280821484662</v>
       </c>
       <c r="B18" s="0">
-        <v>0.022070681125927916</v>
+        <v>0.020231457698767219</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.011424940346509149</v>
+        <v>-0.010472861984300086</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0086676589234134238</v>
+        <v>0.0079453540131290135</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.046354056188424642</v>
+        <v>-0.042491218172722611</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.061353702658050513</v>
+        <v>-0.056240894103213035</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.010031723126961212</v>
+        <v>0.0091957461997144163</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0076697746415518298</v>
+        <v>0.0070306267547559642</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0033892117225450824</v>
+        <v>-0.0031067774123329506</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.043391533161354245</v>
+        <v>-0.03977557206457466</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.0013442754831801129</v>
+        <v>-0.001232252526248423</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.021352576051033245</v>
+        <v>-0.019573194713447095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.013918218887163103</v>
+        <v>-0.012758367313232877</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.024507798535258307</v>
+        <v>-0.022465481990653513</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.00041953483982481998</v>
+        <v>-0.00038457360317273315</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.068838876383633396</v>
+        <v>-0.063102303351663891</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.035971275101709832</v>
+        <v>-0.032973668843234105</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.012196578236037592</v>
+        <v>-0.011180196716367719</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.010911293519989096</v>
+        <v>-0.010002019059990042</v>
       </c>
       <c r="B21" s="0">
-        <v>0.018410248959447983</v>
+        <v>0.016876061546160781</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.0014012405316752852</v>
+        <v>-0.001284470487369016</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.021091291114174404</v>
+        <v>-0.019333683521326639</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.014265447875287607</v>
+        <v>-0.013076660552347075</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.010688641123423714</v>
+        <v>-0.0097979210298052011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.038106229922086621</v>
+        <v>-0.034930710761912787</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.020026982209953248</v>
+        <v>-0.018358067025790403</v>
       </c>
       <c r="C22" s="0">
-        <v>0.00026275007747345036</v>
+        <v>0.00024085423768399616</v>
       </c>
       <c r="D22" s="0">
-        <v>0.012565077344994013</v>
+        <v>0.011517987566244392</v>
       </c>
       <c r="E22" s="0">
-        <v>0.01425882606006823</v>
+        <v>0.0130705905550626</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.019198923184430394</v>
+        <v>-0.017599012919061185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.012192316540142578</v>
+        <v>0.011176290161797386</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.021117067700918701</v>
+        <v>-0.019357312059175402</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.0020483498744368611</v>
+        <v>-0.0018776540515670903</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0061495713669627583</v>
+        <v>-0.0056371070863825423</v>
       </c>
       <c r="E23" s="0">
-        <v>0.019479002316530991</v>
+        <v>0.017855752123486723</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.044463346932976155</v>
+        <v>-0.040758068021894855</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.00036456558195691047</v>
+        <v>-0.00033418511679389473</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0029739203080164089</v>
+        <v>-0.0027260936156816573</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0075222683918336752</v>
+        <v>-0.0068954126925142023</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0026424757546038569</v>
+        <v>-0.0024222694417202484</v>
       </c>
       <c r="E24" s="0">
-        <v>0.0066251656640671786</v>
+        <v>0.006073068525394909</v>
       </c>
       <c r="F24" s="0">
-        <v>0.019987682459078282</v>
+        <v>0.01832204225415518</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.017921365747452733</v>
+        <v>0.016427918601831626</v>
       </c>
       <c r="B25" s="0">
-        <v>0.020603890169107519</v>
+        <v>0.018886899321681805</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.012193421284330375</v>
+        <v>-0.011177302843969616</v>
       </c>
       <c r="D25" s="0">
-        <v>0.011842446625055403</v>
+        <v>0.010855576072967277</v>
       </c>
       <c r="E25" s="0">
-        <v>0.022985467593033881</v>
+        <v>0.021070011960281021</v>
       </c>
       <c r="F25" s="0">
-        <v>0.024442877024398901</v>
+        <v>0.022405970605698988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0019718359725986456</v>
+        <v>0.0018075163082154622</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.013578578174851474</v>
+        <v>-0.012447029993613745</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.030724143372364843</v>
+        <v>-0.028163798091334402</v>
       </c>
       <c r="D26" s="0">
-        <v>0.013106637582569247</v>
+        <v>0.012014417784021902</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.029114806288719208</v>
+        <v>-0.026688572431326052</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.013494923661164171</v>
+        <v>-0.012370346689400513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0054292685871631385</v>
+        <v>0.0049768295382330296</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.027915822347553854</v>
+        <v>-0.025589503818591042</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.028150470386495041</v>
+        <v>-0.025804597854287181</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.012336729728034068</v>
+        <v>-0.011308668917364595</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0078247034768773593</v>
+        <v>-0.0071726448538043108</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0083994214428997904</v>
+        <v>-0.0076994696559913312</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.016500806148839309</v>
+        <v>0.01512573896976932</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.010239780225754946</v>
+        <v>-0.0093864652069420851</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.029581717987515077</v>
+        <v>-0.027116574821888839</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.014917923691215695</v>
+        <v>-0.013674763383614397</v>
       </c>
       <c r="E28" s="0">
-        <v>0.008228490937366828</v>
+        <v>0.0075427833592530136</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.020490805017659208</v>
+        <v>-0.018783237932854413</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.027232937416003744</v>
+        <v>-0.024963525964670163</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.019419149853932449</v>
+        <v>-0.017800887366104801</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0057879731792775946</v>
+        <v>0.0053056420810044247</v>
       </c>
       <c r="D29" s="0">
-        <v>0.016323893124269961</v>
+        <v>0.014963568697247409</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.024750151458226011</v>
+        <v>-0.022687638836707102</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.037033080511341521</v>
+        <v>-0.033946990468729621</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0029811078724122919</v>
+        <v>-0.0027326822163778464</v>
       </c>
       <c r="B30" s="0">
-        <v>0.030358372206198359</v>
+        <v>0.02782850785568175</v>
       </c>
       <c r="C30" s="0">
-        <v>0.021968820881864415</v>
+        <v>0.020138085808375727</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0079327986936683081</v>
+        <v>-0.0072717321358626297</v>
       </c>
       <c r="E30" s="0">
-        <v>0.040408745843528548</v>
+        <v>0.037041350356567804</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.0033110319151509193</v>
+        <v>-0.0030351125888883335</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
+++ b/statistics/SPSS/roiObjectLvl_Within-PLI_alpha/roiObjectLvl_Within-PLI_alpha.xlsx
@@ -79,8 +79,8 @@
   <dimension ref="A1:F30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
     <col min="3" max="3" width="16.42578125" customWidth="true"/>
     <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="16.42578125" customWidth="true"/>
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.015457470280839825</v>
+        <v>-0.016862694851825233</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.043410729099134904</v>
+        <v>-0.047357159017238026</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.013465659756188575</v>
+        <v>-0.01468981064311492</v>
       </c>
       <c r="D2" s="0">
-        <v>-0.008403989615169638</v>
+        <v>-0.009167988671094196</v>
       </c>
       <c r="E2" s="0">
-        <v>0.0091858558036740923</v>
+        <v>0.010020933604008242</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.012049473997582716</v>
+        <v>-0.013144880724635599</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.00057835130831723758</v>
+        <v>-0.00063092869998238044</v>
       </c>
       <c r="B3" s="0">
-        <v>0.0085316493747257804</v>
+        <v>0.0093072538633370838</v>
       </c>
       <c r="C3" s="0">
-        <v>0.0074702344705998014</v>
+        <v>0.0081493466951997884</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00012686233913850042</v>
+        <v>0.00013839527906017723</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.013208906751106197</v>
+        <v>-0.014409716455752342</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.012269329292866449</v>
+        <v>-0.013384722864945242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.018817433619223833</v>
+        <v>-0.020528109402789596</v>
       </c>
       <c r="B4" s="0">
-        <v>0.027464991844691089</v>
+        <v>0.029961809285117436</v>
       </c>
       <c r="C4" s="0">
-        <v>0.012530823838985516</v>
+        <v>0.013669989642529801</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0096190712132740996</v>
+        <v>-0.010493532232662639</v>
       </c>
       <c r="E4" s="0">
-        <v>0.0044671864847303788</v>
+        <v>0.0048732943469786405</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0030718527095339732</v>
+        <v>-0.0033511120467641375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0070696916970207635</v>
+        <v>-0.00771239094220455</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0060544773709024224</v>
+        <v>-0.0066048844046208144</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0022399882912738645</v>
+        <v>-0.0024436235904806147</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.019636859159806008</v>
+        <v>-0.021422028174333863</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00033993820958339027</v>
+        <v>-0.00037084168318179955</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.014865728900255615</v>
+        <v>-0.016217158800278964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0056644277658771114</v>
+        <v>0.0061793757445931519</v>
       </c>
       <c r="B6" s="0">
-        <v>0.012970698079588616</v>
+        <v>0.014149852450460298</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0060401411333088073</v>
+        <v>-0.0065892448727005171</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.014209033049612629</v>
+        <v>-0.015500763326850298</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0065412351126638013</v>
+        <v>-0.0071358928501786822</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0067327291059176009</v>
+        <v>0.007344795388273595</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.017548313502873836</v>
+        <v>-0.01914361473040771</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0071524474231207669</v>
+        <v>-0.0078026699161319879</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.003437632060820317</v>
+        <v>-0.0037501440663496033</v>
       </c>
       <c r="D7" s="0">
-        <v>0.039095106641690469</v>
+        <v>0.042649207245480492</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.029081016464556853</v>
+        <v>-0.031724745234061991</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.009639287813890951</v>
+        <v>-0.010515586706062841</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0028195212018742311</v>
+        <v>0.0030758413111355298</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.022995584438821048</v>
+        <v>-0.025086092115077563</v>
       </c>
       <c r="C8" s="0">
-        <v>0.014209831812488749</v>
+        <v>0.01550163470453314</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0023709739893314485</v>
+        <v>0.0025865170792707115</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.00050260997465972901</v>
+        <v>-0.00054830179053788619</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0070636598036961651</v>
+        <v>-0.0077058106949411398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.016391104366647868</v>
+        <v>0.017881204763615988</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0072353516753437264</v>
+        <v>0.0078931109185567672</v>
       </c>
       <c r="C9" s="0">
-        <v>-0.010490003350190735</v>
+        <v>-0.011443640018389989</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.022053591968188235</v>
+        <v>-0.024058463965296317</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.0070048514208787549</v>
+        <v>-0.0076416560955040458</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.010104938944247299</v>
+        <v>-0.011023569757360741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0031235441036316924</v>
+        <v>0.0034075026585073109</v>
       </c>
       <c r="B10" s="0">
-        <v>0.014977812889712228</v>
+        <v>0.01633943224332246</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.01661270853817437</v>
+        <v>-0.018122954768917454</v>
       </c>
       <c r="D10" s="0">
-        <v>0.047312040758332341</v>
+        <v>0.05161313537272616</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.02057179246188906</v>
+        <v>-0.022441955412969949</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.014322588938957159</v>
+        <v>-0.015624642478862472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0053317237646948179</v>
+        <v>-0.0058164259251215489</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0069073650309348089</v>
+        <v>0.007535307306474448</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.00092328353197917989</v>
+        <v>-0.0010072183985228023</v>
       </c>
       <c r="D11" s="0">
-        <v>0.0013550040723953605</v>
+        <v>0.0014781862607949336</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0080328387393603928</v>
+        <v>-0.0087630968065749992</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.018774552741943895</v>
+        <v>-0.020481330263938891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.015311721642766563</v>
+        <v>-0.016703696337563523</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.030643326219222555</v>
+        <v>-0.033429083148242777</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0057086145595462434</v>
+        <v>-0.0062275795195048667</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.014243835088065204</v>
+        <v>-0.015538729186980182</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.023301074931509624</v>
+        <v>-0.025419354470737898</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0046001368465136139</v>
+        <v>0.005018331105287599</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.000571791332660887</v>
+        <v>0.00062377236290284133</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0032591209221645157</v>
+        <v>-0.003555404642361204</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0081043112007070373</v>
+        <v>0.0088410667644077123</v>
       </c>
       <c r="D13" s="0">
-        <v>0.027859730848861397</v>
+        <v>0.030392433653303297</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0016848981220963233</v>
+        <v>0.0018380706786503831</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.0028890121376772826</v>
+        <v>-0.0031516496047387932</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0015264586779424327</v>
+        <v>0.0016652276486645023</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00040577154103732527</v>
+        <v>0.00044265986294966808</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.016187749417563013</v>
+        <v>-0.017659363000977868</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.0076398557856359184</v>
+        <v>-0.0083343881297846534</v>
       </c>
       <c r="E14" s="0">
-        <v>0.0084509975814322513</v>
+        <v>0.0092192700888352741</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.019354895864557797</v>
+        <v>-0.021114431852244819</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.039692195489296866</v>
+        <v>-0.043300576897414733</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.001061383156793716</v>
+        <v>-0.001157872534684079</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0266063061380159</v>
+        <v>-0.029025061241471917</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.014727378571772143</v>
+        <v>-0.016066231169206024</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0034983507383335444</v>
+        <v>0.0038163826236367604</v>
       </c>
       <c r="F15" s="0">
-        <v>0.020480757644318781</v>
+        <v>0.022342644702893155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019611571543939332</v>
+        <v>-0.002139444168429705</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.0066181456055597887</v>
+        <v>-0.0072197952060651382</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.009282275586623423</v>
+        <v>-0.010126118821771057</v>
       </c>
       <c r="D16" s="0">
-        <v>0.032450540602714462</v>
+        <v>0.035400589748415867</v>
       </c>
       <c r="E16" s="0">
-        <v>0.0045883922695516</v>
+        <v>0.0050055188395109473</v>
       </c>
       <c r="F16" s="0">
-        <v>0.010862376351506775</v>
+        <v>0.011849865110734714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.020136812105411184</v>
+        <v>-0.021967431387721281</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0040636658935122583</v>
+        <v>0.0044330900656496253</v>
       </c>
       <c r="C17" s="0">
-        <v>0.0076341869820130137</v>
+        <v>0.0083282039803778685</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.009687044107333953</v>
+        <v>-0.010567684480727979</v>
       </c>
       <c r="E17" s="0">
-        <v>0.0047190047190047157</v>
+        <v>0.0051480051480051747</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.0064896893097375341</v>
+        <v>-0.0070796610651684411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.041365280821484662</v>
+        <v>0.045125760896165157</v>
       </c>
       <c r="B18" s="0">
-        <v>0.020231457698767219</v>
+        <v>0.022070681125927916</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.010472861984300086</v>
+        <v>-0.011424940346509149</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0079453540131290135</v>
+        <v>0.0086676589234134238</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.042491218172722611</v>
+        <v>-0.046354056188424642</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.056240894103213035</v>
+        <v>-0.061353702658050513</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0091957461997144163</v>
+        <v>0.010031723126961212</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0070306267547559642</v>
+        <v>0.0076697746415518298</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.0031067774123329506</v>
+        <v>-0.0033892117225450824</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.03977557206457466</v>
+        <v>-0.043391533161354245</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.001232252526248423</v>
+        <v>-0.0013442754831801129</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.019573194713447095</v>
+        <v>-0.021352576051033245</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.012758367313232877</v>
+        <v>-0.013918218887163103</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.022465481990653513</v>
+        <v>-0.024507798535258307</v>
       </c>
       <c r="C20" s="0">
-        <v>-0.00038457360317273315</v>
+        <v>-0.00041953483982481998</v>
       </c>
       <c r="D20" s="0">
-        <v>-0.063102303351663891</v>
+        <v>-0.068838876383633396</v>
       </c>
       <c r="E20" s="0">
-        <v>-0.032973668843234105</v>
+        <v>-0.035971275101709832</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.011180196716367719</v>
+        <v>-0.012196578236037592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.010002019059990042</v>
+        <v>-0.010911293519989096</v>
       </c>
       <c r="B21" s="0">
-        <v>0.016876061546160781</v>
+        <v>0.018410248959447983</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.001284470487369016</v>
+        <v>-0.0014012405316752852</v>
       </c>
       <c r="D21" s="0">
-        <v>-0.019333683521326639</v>
+        <v>-0.021091291114174404</v>
       </c>
       <c r="E21" s="0">
-        <v>-0.013076660552347075</v>
+        <v>-0.014265447875287607</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.0097979210298052011</v>
+        <v>-0.010688641123423714</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.034930710761912787</v>
+        <v>-0.038106229922086621</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.018358067025790403</v>
+        <v>-0.020026982209953248</v>
       </c>
       <c r="C22" s="0">
-        <v>0.00024085423768399616</v>
+        <v>0.00026275007747345036</v>
       </c>
       <c r="D22" s="0">
-        <v>0.011517987566244392</v>
+        <v>0.012565077344994013</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0130705905550626</v>
+        <v>0.01425882606006823</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.017599012919061185</v>
+        <v>-0.019198923184430394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.011176290161797386</v>
+        <v>0.012192316540142578</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.019357312059175402</v>
+        <v>-0.021117067700918701</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.0018776540515670903</v>
+        <v>-0.0020483498744368611</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.0056371070863825423</v>
+        <v>-0.0061495713669627583</v>
       </c>
       <c r="E23" s="0">
-        <v>0.017855752123486723</v>
+        <v>0.019479002316530991</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.040758068021894855</v>
+        <v>-0.044463346932976155</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.00033418511679389473</v>
+        <v>-0.00036456558195691047</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0027260936156816573</v>
+        <v>-0.0029739203080164089</v>
       </c>
       <c r="C24" s="0">
-        <v>-0.0068954126925142023</v>
+        <v>-0.0075222683918336752</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0024222694417202484</v>
+        <v>-0.0026424757546038569</v>
       </c>
       <c r="E24" s="0">
-        <v>0.006073068525394909</v>
+        <v>0.0066251656640671786</v>
       </c>
       <c r="F24" s="0">
-        <v>0.01832204225415518</v>
+        <v>0.019987682459078282</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.016427918601831626</v>
+        <v>0.017921365747452733</v>
       </c>
       <c r="B25" s="0">
-        <v>0.018886899321681805</v>
+        <v>0.020603890169107519</v>
       </c>
       <c r="C25" s="0">
-        <v>-0.011177302843969616</v>
+        <v>-0.012193421284330375</v>
       </c>
       <c r="D25" s="0">
-        <v>0.010855576072967277</v>
+        <v>0.011842446625055403</v>
       </c>
       <c r="E25" s="0">
-        <v>0.021070011960281021</v>
+        <v>0.022985467593033881</v>
       </c>
       <c r="F25" s="0">
-        <v>0.022405970605698988</v>
+        <v>0.024442877024398901</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.0018075163082154622</v>
+        <v>0.0019718359725986456</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.012447029993613745</v>
+        <v>-0.013578578174851474</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.028163798091334402</v>
+        <v>-0.030724143372364843</v>
       </c>
       <c r="D26" s="0">
-        <v>0.012014417784021902</v>
+        <v>0.013106637582569247</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.026688572431326052</v>
+        <v>-0.029114806288719208</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.012370346689400513</v>
+        <v>-0.013494923661164171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0049768295382330296</v>
+        <v>0.0054292685871631385</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.025589503818591042</v>
+        <v>-0.027915822347553854</v>
       </c>
       <c r="C27" s="0">
-        <v>-0.025804597854287181</v>
+        <v>-0.028150470386495041</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.011308668917364595</v>
+        <v>-0.012336729728034068</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0071726448538043108</v>
+        <v>-0.0078247034768773593</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.0076994696559913312</v>
+        <v>-0.0083994214428997904</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.01512573896976932</v>
+        <v>0.016500806148839309</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0093864652069420851</v>
+        <v>-0.010239780225754946</v>
       </c>
       <c r="C28" s="0">
-        <v>-0.027116574821888839</v>
+        <v>-0.029581717987515077</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.013674763383614397</v>
+        <v>-0.014917923691215695</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0075427833592530136</v>
+        <v>0.008228490937366828</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.018783237932854413</v>
+        <v>-0.020490805017659208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.024963525964670163</v>
+        <v>-0.027232937416003744</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.017800887366104801</v>
+        <v>-0.019419149853932449</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0053056420810044247</v>
+        <v>0.0057879731792775946</v>
       </c>
       <c r="D29" s="0">
-        <v>0.014963568697247409</v>
+        <v>0.016323893124269961</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.022687638836707102</v>
+        <v>-0.024750151458226011</v>
       </c>
       <c r="F29" s="0">
-        <v>-0.033946990468729621</v>
+        <v>-0.037033080511341521</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0027326822163778464</v>
+        <v>-0.0029811078724122919</v>
       </c>
       <c r="B30" s="0">
-        <v>0.02782850785568175</v>
+        <v>0.030358372206198359</v>
       </c>
       <c r="C30" s="0">
-        <v>0.020138085808375727</v>
+        <v>0.021968820881864415</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0072717321358626297</v>
+        <v>-0.0079327986936683081</v>
       </c>
       <c r="E30" s="0">
-        <v>0.037041350356567804</v>
+        <v>0.040408745843528548</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.0030351125888883335</v>
+        <v>-0.0033110319151509193</v>
       </c>
     </row>
   </sheetData>
